--- a/excel/t4.2_cut_tree.xlsx
+++ b/excel/t4.2_cut_tree.xlsx
@@ -456,12 +456,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>CC</t>
         </is>
       </c>
     </row>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -537,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>3</v>
@@ -554,12 +554,14 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -571,13 +573,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -590,13 +592,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -609,13 +611,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -628,13 +630,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -647,13 +649,13 @@
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -666,14 +668,12 @@
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="n">
-        <v>6</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>6</v>
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
@@ -723,7 +723,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
@@ -742,7 +742,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -780,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>6</v>
@@ -788,7 +788,9 @@
       <c r="E19" t="n">
         <v>6</v>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
       <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -796,16 +798,20 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" t="n">
         <v>2</v>
       </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -813,127 +819,157 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
         <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>6</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>6</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27" t="inlineStr"/>
     </row>
@@ -942,19 +978,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" t="inlineStr"/>
     </row>
@@ -963,19 +999,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G29" t="inlineStr"/>
     </row>
@@ -987,17 +1023,13 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
-      </c>
-      <c r="D30" t="n">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1008,17 +1040,13 @@
         <v>4</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
-      </c>
-      <c r="D31" t="n">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
         <v>2</v>
       </c>
-      <c r="F31" t="n">
-        <v>6</v>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1029,17 +1057,13 @@
         <v>4</v>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
-      </c>
-      <c r="D32" t="n">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
         <v>3</v>
       </c>
-      <c r="F32" t="n">
-        <v>1</v>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1050,17 +1074,13 @@
         <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
-      </c>
-      <c r="D33" t="n">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>3</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1073,15 +1093,11 @@
       <c r="C34" t="n">
         <v>5</v>
       </c>
-      <c r="D34" t="n">
-        <v>6</v>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>3</v>
-      </c>
-      <c r="F34" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1092,17 +1108,15 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
-      </c>
-      <c r="F35" t="n">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1113,17 +1127,15 @@
         <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
-      </c>
-      <c r="F36" t="n">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1134,17 +1146,15 @@
         <v>4</v>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
-      </c>
-      <c r="F37" t="n">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1155,13 +1165,13 @@
         <v>4</v>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -1174,13 +1184,13 @@
         <v>4</v>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -1263,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
@@ -1286,7 +1296,9 @@
       <c r="E45" t="n">
         <v>5</v>
       </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
       <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -1299,13 +1311,13 @@
       <c r="C46" t="n">
         <v>6</v>
       </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>6</v>
-      </c>
-      <c r="F46" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
       <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -1318,13 +1330,13 @@
       <c r="C47" t="n">
         <v>6</v>
       </c>
-      <c r="D47" t="n">
-        <v>2</v>
-      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>6</v>
-      </c>
-      <c r="F47" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3</v>
+      </c>
       <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -1335,15 +1347,15 @@
         <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
-      </c>
-      <c r="D48" t="n">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>6</v>
-      </c>
-      <c r="F48" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4</v>
+      </c>
       <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -1356,13 +1368,13 @@
       <c r="C49" t="n">
         <v>6</v>
       </c>
-      <c r="D49" t="n">
-        <v>4</v>
-      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>6</v>
-      </c>
-      <c r="F49" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5</v>
+      </c>
       <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -1376,15 +1388,15 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1397,15 +1409,15 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F51" t="n">
+        <v>6</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1418,15 +1430,15 @@
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>6</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1439,15 +1451,15 @@
         <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>6</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1457,18 +1469,18 @@
         <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
         <v>5</v>
       </c>
       <c r="E54" t="n">
-        <v>6</v>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>6</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1481,15 +1493,15 @@
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="n">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>6</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1501,9 +1513,7 @@
       <c r="C56" t="n">
         <v>6</v>
       </c>
-      <c r="D56" t="n">
-        <v>6</v>
-      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
         <v>6</v>
       </c>
